--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,54 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>原计划</t>
+  </si>
+  <si>
+    <t>执行情况</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>配置好环境以及连通远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行实体类测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +82,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +390,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>周次</t>
   </si>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>进行实体类测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring数据访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -433,6 +441,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>周次</t>
   </si>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>Spring数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -413,7 +417,7 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -441,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -455,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -467,6 +471,9 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>周次</t>
   </si>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>Spring数据访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -417,7 +413,7 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -445,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -459,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -471,9 +467,6 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>周次</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Spring数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,21 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -441,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -455,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -467,6 +479,34 @@
       </c>
       <c r="D4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -495,7 +535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>周次</t>
   </si>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Spring MVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善web代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善client代码块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,21 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -453,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -467,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -481,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>11</v>
       </c>
@@ -495,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -507,6 +523,34 @@
       </c>
       <c r="D6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -522,7 +566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -535,7 +579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>周次</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,6 +550,20 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>周次</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,6 +565,45 @@
       </c>
       <c r="D9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>周次</t>
   </si>
@@ -75,6 +75,50 @@
   </si>
   <si>
     <t>完善client代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天1:00-4:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天1:00-4:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五天1:00-4:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六天1:00-4:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七天1:00-4:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Jenkins的使用以及相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进一步熟悉Jenkins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,17 +471,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,7 +506,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -476,7 +520,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -490,7 +534,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -504,7 +548,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -518,7 +562,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -532,7 +576,7 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
@@ -546,7 +590,7 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
@@ -560,7 +604,7 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -574,7 +618,7 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -588,7 +632,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
@@ -602,8 +646,77 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>周次</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>进一步熟悉Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉Jenkins 配置流程 构建等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求分析说明书与需求规格说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +482,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,7 +490,7 @@
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -509,7 +517,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -523,7 +531,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -537,7 +545,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -551,7 +559,7 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -565,7 +573,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -579,7 +587,7 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -593,7 +601,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -607,7 +615,7 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -621,7 +629,7 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -635,7 +643,7 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -685,13 +693,22 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710AE87-0C03-4841-9421-E9406532F9F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>周次</t>
   </si>
@@ -127,13 +128,25 @@
   </si>
   <si>
     <t>编写需求分析说明书与需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了解JIRA安装以及使用流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,6 +201,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -235,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +284,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,7 +724,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -705,33 +755,42 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -744,7 +803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -757,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710AE87-0C03-4841-9421-E9406532F9F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2039A17-AA3B-494E-B06F-79F8F91F7037}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>周次</t>
   </si>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第六天1:00-4:34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第七天1:00-4:35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +136,18 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户需求说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六天1:00-4:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +540,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +732,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -738,13 +746,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -752,13 +760,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -766,33 +774,57 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2039A17-AA3B-494E-B06F-79F8F91F7037}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE53C7-AE8A-4DAA-A1D1-1185236443ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>周次</t>
   </si>
@@ -95,22 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三天1:00-4:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四天1:00-4:32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五天1:00-4:33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七天1:00-4:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习Jenkins的使用以及相关知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,7 +131,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第六天1:00-4:30</t>
+    <t>完善dao service 测试 以及完善代码注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五天1:00-4:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  第六天10:00-14:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第七天9:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -746,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -760,55 +768,55 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -816,15 +824,62 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEE53C7-AE8A-4DAA-A1D1-1185236443ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC6323-3D99-4803-A19A-3687993E266C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>周次</t>
   </si>
@@ -155,7 +155,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第八天</t>
+    <t>安装配置JIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新配置Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八天1:30-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九天8:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署JIRA到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九天1:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试集成idea/JIRA/Jenkins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,37 +873,44 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC6323-3D99-4803-A19A-3687993E266C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14B453-4C4C-460C-BB26-AE3FC82F9E89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>周次</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>尝试集成idea/JIRA/Jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十天1:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ExtJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十一天1:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,6 +923,31 @@
       </c>
       <c r="D24" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14B453-4C4C-460C-BB26-AE3FC82F9E89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82B4C0-DD12-46AD-8EB3-6D5F59164B72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>周次</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>第十一天1:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ExtJSMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ExtJS基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,9 +956,23 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/doc/log/log_201608040212_zouguo.xlsx
+++ b/doc/log/log_201608040212_zouguo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82B4C0-DD12-46AD-8EB3-6D5F59164B72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E673CD5F-BCC8-4D5F-BC09-D157923E1A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>周次</t>
   </si>
@@ -199,11 +199,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习ExtJSMVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习ExtJS基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十五天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十六天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十七天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十八天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十九天1:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解ExtJSMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习HTMLCSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解JS/jquery框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -956,13 +992,13 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -974,6 +1010,98 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
